--- a/MODELO_PLANILHA/Template_Produtos_Mpozenato_CADASTRO.xlsx
+++ b/MODELO_PLANILHA/Template_Produtos_Mpozenato_CADASTRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Helton Cardoso\AUTOMATIZACAO_CADASTRO\MODELO_PLANILHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5415EE-F2F8-4C94-A8E0-0E9711A2ADAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1C4596-A5DF-4452-87EF-6CA67850614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="671" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="671" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções Preenchimento" sheetId="6" r:id="rId1"/>
@@ -1120,7 +1120,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1165,12 +1165,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1553,13 +1547,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3404,7 +3398,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:A12"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3457,7 +3451,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -3597,7 +3591,7 @@
       </c>
     </row>
     <row r="2" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>213</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3675,7 +3669,7 @@
       <c r="Z2" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="24" t="s">
         <v>229</v>
       </c>
       <c r="AB2" s="17" t="s">
@@ -3753,7 +3747,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3763,7 +3757,7 @@
     <col min="3" max="3" width="21" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="16" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="22" style="24" customWidth="1"/>
+    <col min="6" max="6" width="22" style="22" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="29.140625" style="16" bestFit="1" customWidth="1"/>
@@ -3790,7 +3784,7 @@
       <c r="E1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>112</v>
       </c>
       <c r="G1" s="19" t="s">
@@ -3831,7 +3825,7 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3850,7 +3844,7 @@
     <col min="13" max="13" width="52.7109375" style="8" customWidth="1"/>
     <col min="14" max="14" width="32.85546875" style="8" customWidth="1"/>
     <col min="15" max="15" width="28.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33" style="29" customWidth="1"/>
+    <col min="16" max="16" width="33" style="27" customWidth="1"/>
     <col min="17" max="17" width="28.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31.28515625" style="8" bestFit="1" customWidth="1"/>
@@ -3903,7 +3897,7 @@
       <c r="O1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="26" t="s">
         <v>125</v>
       </c>
       <c r="Q1" s="15" t="s">
@@ -3934,7 +3928,7 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.28515625" style="12" customWidth="1"/>
     <col min="4" max="4" width="11" style="12" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="12" customWidth="1"/>
@@ -3948,7 +3942,7 @@
       <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -3979,7 +3973,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4038,46 +4032,46 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
+      <c r="A60" s="23"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
+      <c r="A69" s="23"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
+      <c r="A79" s="23"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
+      <c r="A89" s="23"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
+      <c r="A96" s="23"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
+      <c r="A104" s="23"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
+      <c r="A111" s="23"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
+      <c r="A119" s="23"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127"/>
